--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DCFDE5-CB4C-4F78-81CC-FA5062E420D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E7576B-4F92-4002-ACB0-DD5168776829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -308,14 +308,6 @@
     <t>season3</t>
   </si>
   <si>
-    <t>cold0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cold1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Winter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,6 +327,14 @@
   </si>
   <si>
     <t>isActive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +705,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -763,7 +763,7 @@
         <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1607,19 +1607,19 @@
         <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1651,19 +1651,19 @@
         <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1695,7 +1695,7 @@
         <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1707,7 +1707,7 @@
         <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -1739,7 +1739,7 @@
         <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1751,7 +1751,7 @@
         <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>71</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>72</v>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E7576B-4F92-4002-ACB0-DD5168776829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB1C1E-09C1-4675-AE22-07728BF0E90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,23 @@
   <si>
     <t>season1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2099-12-30</t>
+  </si>
+  <si>
+    <t>2099-12-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>2023-03-31</t>
   </si>
 </sst>
 </file>
@@ -381,11 +398,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -720,9 +740,10 @@
     <col min="8" max="8" width="29.125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,8 +786,11 @@
       <c r="N1" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -809,8 +833,11 @@
       <c r="N2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -853,8 +880,11 @@
       <c r="N3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -897,8 +927,11 @@
       <c r="N4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -941,8 +974,11 @@
       <c r="N5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -985,8 +1021,11 @@
       <c r="N6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1029,8 +1068,11 @@
       <c r="N7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1073,8 +1115,11 @@
       <c r="N8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1117,8 +1162,11 @@
       <c r="N9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1161,8 +1209,11 @@
       <c r="N10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1205,8 +1256,11 @@
       <c r="N11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1249,8 +1303,11 @@
       <c r="N12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1293,8 +1350,11 @@
       <c r="N13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1337,8 +1397,11 @@
       <c r="N14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1381,8 +1444,11 @@
       <c r="N15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1425,8 +1491,11 @@
       <c r="N16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1469,8 +1538,11 @@
       <c r="N17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1513,8 +1585,11 @@
       <c r="N18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1557,8 +1632,11 @@
       <c r="N19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1601,8 +1679,11 @@
       <c r="N20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1645,8 +1726,11 @@
       <c r="N21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -1689,8 +1773,11 @@
       <c r="N22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -1733,8 +1820,11 @@
       <c r="N23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="N24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -1821,8 +1914,11 @@
       <c r="N25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1864,6 +1960,9 @@
       </c>
       <c r="N26" t="b">
         <v>1</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BuffTable.xlsx
+++ b/Assets/06.Table/BuffTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB1C1E-09C1-4675-AE22-07728BF0E90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721BC70C-6E6E-44DE-963A-C0C0EA18E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffTable" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
     <t>2023-03-31</t>
+  </si>
+  <si>
+    <t>2023-07-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -725,7 +726,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1727,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1774,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1821,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1868,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1915,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1962,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
